--- a/2007-xlsx/25-KW11 Time-Sheet.xlsx
+++ b/2007-xlsx/25-KW11 Time-Sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t xml:space="preserve">      yDh-embedded Inh. Danny Heinicke</t>
   </si>
@@ -91,30 +91,30 @@
     <t xml:space="preserve">TH1&amp;2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 5OG IBN Feldgeräte</t>
+    <t xml:space="preserve"> 5OG IBN Feldgeräte EnOcean &amp; Modbus &amp; SMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5OG Mängelbeseitigung und Schaltschrank – Revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4OG Bacnet Linzenz Controller eingesetzt &amp; IBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5OG DALI &amp; Beleuchtungzonen Testlauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3OG VSR MP-Kalibrierung &amp; LogData Dokumentation V-nom</t>
   </si>
   <si>
     <t xml:space="preserve">TH3&amp;4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3OG VSR MP-Kalibrierung &amp; LogData Dokumentation V-nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4OG Modbus 2te Linie Nachrüstung &amp; Implementierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4OG DALI &amp; Beleuchtungzonen Testlauf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4OG SMI und Jalousie Testlauf und Fehlersuche</t>
   </si>
   <si>
@@ -130,19 +130,22 @@
     <t xml:space="preserve">TH1 </t>
   </si>
   <si>
-    <t xml:space="preserve">TH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5OG Kalibrierung EnOcean Sensorik &amp; dokumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5OG Kabelsuche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5OG Kalibrierung EnOcean Sensorik</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6OG Kalibrierung EnOcean Sensorik</t>
+    <t xml:space="preserve"> 6OG Kabelzug VSR Zuluft und Schaltschrank korrektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3OG MP-Bus Linie ergänzt und Programmiert + Schalts. Revi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4OG DALI Testlauf und Reparatur DALI Präsenzmelder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4OG Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -947,8 +950,8 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="149" zoomScaleNormal="100" zoomScalePageLayoutView="149" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B2" colorId="64" zoomScale="149" zoomScaleNormal="100" zoomScalePageLayoutView="149" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,7 +988,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10" t="n">
         <f aca="false">H8</f>
-        <v>2</v>
+        <v>38.5</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>3</v>
@@ -1076,7 +1079,7 @@
       </c>
       <c r="H8" s="27" t="n">
         <f aca="false">I21+I31+I41+I51+I60+I67</f>
-        <v>2</v>
+        <v>38.5</v>
       </c>
       <c r="I8" s="26" t="n">
         <f aca="false">I13+I14+I15+I16+I17+I18+I19+I23+I24+I25+I26+I27+I28+I29+I33+I34+I35+I36+I37+I38+I39+I43+I44+I45+I46+I47+I48+I49+I53+I54+I55+I56+I57+I58+I62+I63+I65</f>
@@ -1084,7 +1087,7 @@
       </c>
       <c r="J8" s="28" t="n">
         <f aca="false">J21+J31+J41+J51+J60+J67</f>
-        <v>-38</v>
+        <v>-1.5</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="7"/>
@@ -1342,7 +1345,7 @@
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
       <c r="H24" s="52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
@@ -1362,7 +1365,9 @@
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
+      <c r="H25" s="52" t="n">
+        <v>4</v>
+      </c>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
@@ -1371,17 +1376,19 @@
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52" t="n">
+        <v>2</v>
+      </c>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
@@ -1390,17 +1397,19 @@
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="35"/>
+      <c r="H27" s="35" t="n">
+        <v>3</v>
+      </c>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
@@ -1409,17 +1418,19 @@
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
-      <c r="H28" s="35"/>
+      <c r="H28" s="35" t="n">
+        <v>3</v>
+      </c>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
@@ -1456,11 +1467,11 @@
         <v>16</v>
       </c>
       <c r="E30" s="40" t="n">
-        <v>0.84375</v>
+        <v>1.01041666666667</v>
       </c>
       <c r="F30" s="54" t="n">
         <f aca="false">(MOD(E30-C30,1)*24)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="44" t="s">
@@ -1489,11 +1500,11 @@
       </c>
       <c r="I31" s="56" t="n">
         <f aca="false">SUM(H23:H29)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J31" s="55" t="n">
         <f aca="false">I31-H31</f>
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="K31" s="45"/>
     </row>
@@ -1532,14 +1543,16 @@
         <v>21</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35"/>
@@ -1548,7 +1561,7 @@
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B35" s="51" t="s">
         <v>30</v>
@@ -1558,7 +1571,9 @@
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
-      <c r="H35" s="35"/>
+      <c r="H35" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="35"/>
@@ -1577,7 +1592,9 @@
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
-      <c r="H36" s="35"/>
+      <c r="H36" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
       <c r="K36" s="35"/>
@@ -1586,7 +1603,7 @@
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="53" t="s">
         <v>32</v>
@@ -1596,7 +1613,9 @@
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="35"/>
+      <c r="H37" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
       <c r="K37" s="35"/>
@@ -1605,7 +1624,7 @@
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="57" t="s">
         <v>33</v>
@@ -1615,7 +1634,9 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
-      <c r="H38" s="35"/>
+      <c r="H38" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
       <c r="K38" s="35"/>
@@ -1646,17 +1667,17 @@
         <v>15</v>
       </c>
       <c r="C40" s="40" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="40" t="n">
-        <v>0.9375</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="F40" s="54" t="n">
         <f aca="false">(MOD(E40-C40,1)*24)</f>
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="G40" s="43"/>
       <c r="H40" s="44" t="s">
@@ -1685,11 +1706,11 @@
       </c>
       <c r="I41" s="56" t="n">
         <f aca="false">SUM(H33:I39)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J41" s="55" t="n">
         <f aca="false">I41-H41</f>
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K41" s="45"/>
     </row>
@@ -1728,14 +1749,16 @@
         <v>34</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
-      <c r="H44" s="35"/>
+      <c r="H44" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
@@ -1747,14 +1770,16 @@
         <v>34</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C45" s="57"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
-      <c r="H45" s="35"/>
+      <c r="H45" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
       <c r="K45" s="35"/>
@@ -1763,17 +1788,19 @@
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="57"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
-      <c r="H46" s="35"/>
+      <c r="H46" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
@@ -1782,17 +1809,19 @@
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="35"/>
@@ -1877,11 +1906,11 @@
       </c>
       <c r="I51" s="56" t="n">
         <f aca="false">SUM(H43:H49)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51" s="55" t="n">
         <f aca="false">I51-H51</f>
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="K51" s="45"/>
     </row>
@@ -1917,17 +1946,19 @@
     </row>
     <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="52"/>
+        <v>23</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="52" t="n">
+        <v>6</v>
+      </c>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="52"/>
@@ -1936,17 +1967,19 @@
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
-      <c r="H55" s="52"/>
+      <c r="H55" s="52" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
@@ -1954,12 +1987,8 @@
       <c r="M55" s="36"/>
     </row>
     <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>39</v>
-      </c>
+      <c r="A56" s="50"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
@@ -2013,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="40" t="n">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D59" s="41" t="s">
         <v>16</v>
@@ -2023,7 +2052,7 @@
       </c>
       <c r="F59" s="54" t="n">
         <f aca="false">(MOD(E59-C59,1)*24)</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="44" t="s">
@@ -2052,11 +2081,11 @@
       </c>
       <c r="I60" s="56" t="n">
         <f aca="false">SUM(H53:H58)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J60" s="55" t="n">
         <f aca="false">I60-H60</f>
-        <v>-8</v>
+        <v>-1.5</v>
       </c>
       <c r="K60" s="45"/>
     </row>
